--- a/my_work/月和年/ER56959_景洪月平均.xlsx
+++ b/my_work/月和年/ER56959_景洪月平均.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,252 +442,2977 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>36.95059562142524</v>
+        <v>1.93432090229194</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>37.82018248139698</v>
+        <v>2.31591684256106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>37.94922912929835</v>
+        <v>3.243522617735954</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>37.86814478701078</v>
+        <v>3.635170162738304</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>35.22693818799929</v>
+        <v>4.217312542458319</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>37.88575480335589</v>
+        <v>4.07113125036349</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>34.59015563842729</v>
+        <v>3.479208494177522</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>29.98163918487705</v>
+        <v>3.871423011951053</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>35.37516717945151</v>
+        <v>3.280664422013322</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>28.09325460410895</v>
+        <v>3.073583114527569</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>34.74612122095548</v>
+        <v>2.091583742409177</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>34.91126398273204</v>
+        <v>1.736758518197535</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>35.17835148421124</v>
+        <v>1.984850486244869</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>35.48584077799289</v>
+        <v>2.671181968472041</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>36.38558489950988</v>
+        <v>3.499212120209089</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>36.53523989625867</v>
+        <v>3.45425153203592</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>38.80867942887878</v>
+        <v>4.881426708721987</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>38.08610661273651</v>
+        <v>3.31911756329094</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>37.18370335328294</v>
+        <v>3.600305846823693</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>37.28275529901394</v>
+        <v>3.1638953626213</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>34.43011370289583</v>
+        <v>3.887524643475881</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>34.24268145742297</v>
+        <v>2.948994848705044</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>36.6549764941841</v>
+        <v>2.389492893953165</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>34.93480358338527</v>
+        <v>2.019928506843043</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>38.66045859506849</v>
+        <v>2.151682964646692</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>39.65171955917103</v>
+        <v>2.796970883124648</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>38.28217965179186</v>
+        <v>3.179435760276746</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>37.7455700225925</v>
+        <v>3.968808132377946</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>36.25742782457131</v>
+        <v>4.23752700428548</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>35.52131947666771</v>
+        <v>3.750027042529868</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>37.1257692734299</v>
+        <v>3.567096769068324</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>34.62231032987776</v>
+        <v>2.819492607768214</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>35.62140199102527</v>
+        <v>4.164861344561781</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>37.03393757570795</v>
+        <v>3.080331798477147</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>36.44393765305331</v>
+        <v>2.294935060746786</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>37.25537529493725</v>
+        <v>1.938059761434717</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>38.75297865892872</v>
+        <v>2.340139278989442</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>38.98863927657339</v>
+        <v>3.074610835209544</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>39.85713709201753</v>
+        <v>3.972140709822085</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>40.51686370857482</v>
+        <v>4.076692395912027</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>39.28470933640884</v>
+        <v>3.966989192983764</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>37.80207177255197</v>
+        <v>3.933986114717843</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>42.3788529032788</v>
+        <v>2.508640298399942</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>42.12130002766605</v>
+        <v>3.645577715527935</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>39.54577004092832</v>
+        <v>3.662804116540858</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>42.72168932180779</v>
+        <v>3.011693302876797</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>41.9126889153808</v>
+        <v>2.155368822678597</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>43.12702991890171</v>
+        <v>1.519502003351947</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>42.43014701336649</v>
+        <v>1.997904844548034</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>39.63675068351982</v>
+        <v>2.699022747915781</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3.325727196436083</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3.992701495990743</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3.981202038963793</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>3.613239408948631</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2.945772329263165</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2.561083043124978</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>3.607135261782508</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2.588528177603667</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2.180303747689291</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1.734317895732617</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1.776319694715623</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>3.089873905074996</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>3.109287810734707</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>3.764586174975532</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5.021967947682037</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>4.231053121477633</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>3.477970304129075</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>3.573978062432648</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>3.557986609650719</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2.71185275321505</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1.88366553664568</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1.687212882622191</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2.100260933576551</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>3.028206306979606</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>3.344488335011721</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>3.763454717392601</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>3.389547358396555</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>3.302828569329834</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>3.078004285543761</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>3.19414443541046</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>3.373307007768681</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2.734213669117229</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1.449416802681051</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1.832283217219245</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2.07303464032766</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2.701902233866594</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>3.25761125351197</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>3.737560789206162</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>4.08357481895781</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>3.408466840194072</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>3.218949534238591</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>3.211105787851926</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>2.192968252310237</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>2.096465034412036</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>3.008988781616738</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>3.696884867325587</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>3.825836223518114</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>3.607220552080102</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>3.942929572126739</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>3.416677031596461</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>3.54759966110404</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>3.526916399567432</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>3.10833173228282</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>2.036742805345673</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1.657039552887802</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1.917543847912137</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>3.011446385734213</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>3.72005267939251</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>3.540671447684647</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>3.566818671638179</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>2.979544100764397</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>3.046335638247672</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2.718285779424449</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1.846129823952003</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1.746426229358735</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>2.25713742019449</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>2.413363910813618</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>2.898324389291326</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>3.990720148343128</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>3.966594310729814</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>4.389350291410695</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>2.743572437159596</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>2.954354478841029</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>2.976556953662883</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>2.481568953659055</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>2.00085619309338</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1.673721733756474</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1.95086230071877</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>2.499689139938525</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>3.268193989596185</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>3.550835765134656</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>3.620313427669611</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>3.320429387716062</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>3.41378378811863</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>3.356977211010602</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>3.030490214383626</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>2.887009707554545</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>2.234957800511147</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1.777721250379684</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>2.303083277404505</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>2.990291816884344</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>3.099561717601839</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>3.917625529961728</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>4.243842530545346</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>3.215392570211599</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>3.367045057536492</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>2.944213405547254</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>3.093200431592642</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>2.436705298081437</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1.874509405779859</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1.692880443064197</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>2.121790264023284</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>2.764273085934718</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>3.676379645626822</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>4.242764457309192</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>4.006468582047618</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>3.358070866418538</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>2.981322136242279</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>2.803572317083968</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>3.037667797251847</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>2.66319370309514</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>2.134669949625063</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1.695667973334425</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1.803122163658485</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>3.040462253315379</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>3.508809847570272</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>3.554512622576562</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>3.659787840280547</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>3.50383822606013</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>3.748764807246096</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>3.621887586673975</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>3.721274506913832</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>2.777497534655287</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1.972806462600264</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1.472821047959048</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1.951726463197046</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>2.761684481358483</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>3.454064236267775</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>3.189779570039111</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>3.845704244709569</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>3.770095417416134</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>3.647493568043582</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>3.427023172027234</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>3.557795028326801</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>3.083109890630883</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>2.241109618731656</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1.605654205510405</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1.885995523449122</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>2.679824998538285</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>3.430419553889275</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>4.39646328531701</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>4.499213030419061</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>4.353377723999176</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>3.731376174518165</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>3.724748299850173</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>3.425908143828508</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>3.013610482874708</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1.83397440876814</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1.833767803427151</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>2.211838980467288</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>2.875208353078449</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>3.412057322055565</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>3.920837388272483</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>4.137950390713068</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>3.908176653397879</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>3.283140251403744</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>3.717933825244751</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>3.488371070141431</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>2.702458902076834</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>2.616374867738138</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>1.811758608146875</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>2.207561059274509</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>2.822467169759675</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>3.177777080390574</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>4.114787213364496</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>4.236695460603523</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>3.676750925005673</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>3.439708036674284</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>3.475823087541719</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>3.230929387809804</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>2.873503351234991</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>2.006331233431874</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>1.92136934819182</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>2.175688029351589</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>3.008139741704752</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>3.361752269279329</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>3.785722830241907</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>4.137704044713809</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>3.887774028972971</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>3.159791976947847</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>3.729394894286174</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>3.402398049929344</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>2.506850834889168</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>2.255920692194981</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>1.871617906502063</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>1.865436710990888</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>2.543408164848964</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>3.379041856997857</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>3.681180830037004</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>4.535979135109268</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>3.313468063624486</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>2.556491293479051</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>2.970146554030869</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>2.872522072061795</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>3.045198084540016</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>2.075652644764726</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>1.591588292410907</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>2.143724797980071</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>2.751849248516302</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>2.975680834664149</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>3.430507021057093</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>3.775246986203087</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>3.888848964171815</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>3.042859048817602</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>2.793100899513793</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>2.925139945289822</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>2.739461316991216</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>1.852369580560119</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>1.923892813657908</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>2.045355196750617</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>3.0405004856962</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>2.965428638308952</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>3.672787042207867</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>4.46826951017395</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>3.742176299099127</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>3.644021880336991</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>3.618566029513719</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>3.175569673567991</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>2.445205731789111</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>2.069335633665726</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>1.767760373073856</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>2.240681963990656</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>2.376996956440585</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>2.984421941239273</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>3.819585631193749</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>3.065660795031977</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>3.372904577693296</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>2.846895834952448</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>3.909872029928877</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>3.267910188737241</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>2.723783255706925</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>2.333544351188348</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>1.992546057281901</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>2.444704911668165</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>3.179792707683052</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>3.719037723062794</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>4.126865576540182</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>4.41641694710368</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>3.174741696993792</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>3.134995195405395</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>3.420324379865241</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>3.83625254375247</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>3.106151612305812</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>2.168502646802882</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>1.932672653885022</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>2.030929738334033</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>2.753368200818466</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>4.194156227662766</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>4.383748569588898</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>4.602026354777131</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>4.289666624651768</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>3.394604279353704</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>4.2511318541988</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>3.741052055253143</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>2.266870816186047</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>2.021125731298873</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>1.723039107047389</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>1.951680168144438</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>2.886418814605089</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>3.602263640943328</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>4.043686784695097</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>4.121535620533471</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>4.402378459118404</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>3.748430062430719</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>3.172969776391081</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>3.552831907172819</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>2.513123021956748</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>2.383708174932616</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>1.903153220868056</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>1.949537919002634</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>3.136968027922066</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>2.890913397996067</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>4.50176650859547</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>4.380108049542551</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>3.49198578065187</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>3.642774426537269</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>3.454590026094535</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>3.590348819882086</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>2.852674733148342</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>2.243431657343462</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>1.610470675876144</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>2.087814011517134</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>2.367994947543175</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>3.124505141696951</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>3.976254804006672</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>4.030211292263579</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>3.673174653342554</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>3.512783101557444</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>3.31808433620234</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>3.400675125009135</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>2.963737600216383</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>2.108579602013222</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>1.693613209202726</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>2.035655619317519</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>2.359929840556231</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>3.286036850157222</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>3.651871691715161</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>4.150198866359282</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>3.692882421196096</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>2.857749484611662</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>3.254217683044071</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>3.521464398839133</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>2.798067707518121</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>2.166455523544436</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>1.746789389808768</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>1.980222987599906</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>2.837203624813863</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>3.209463973125873</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>3.672888846682126</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>4.580131866620186</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>3.852236011240932</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>3.026608514368319</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>3.682823633932856</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>3.036006269872025</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>3.181710994361239</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>2.1347561681796</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>1.931716382632974</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>2.150374679539345</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>2.803926168029083</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>3.055112133444757</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>3.667299889746724</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>3.710585650286307</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>3.445938533304235</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>2.552189858731322</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>2.959850335538352</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>3.260933353937412</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>2.853880426670319</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>2.198764911857713</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>1.963454388792186</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>2.003975215805079</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>2.77260337141665</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>3.226262384713197</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>4.100258880917562</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>3.518682279854869</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>4.000707660614142</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>3.120576085586293</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>2.974209770680762</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>3.253850193558096</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>2.767404036102768</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>2.230657808563791</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>1.652214303212057</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>2.117281925708373</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>2.720463550726691</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>2.9632618669733</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>3.843629094278876</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>3.517127370412805</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>3.635715474957843</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>3.699037968332128</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>3.808982101145321</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>3.314197839716352</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>3.05727319173364</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>2.318982452277817</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>2.037984739444803</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>2.254870859233093</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>2.645343002126132</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>2.919181513379729</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>4.111578766666685</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>3.311298856061136</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>3.644418512076479</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>3.216566402914436</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>4.02494923771678</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>3.71168352885293</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>2.488837809499154</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>2.175136635280554</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>1.940072529246204</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>2.114505376418678</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>2.941483604967247</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>3.010138381428257</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>4.025151599199369</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>3.591242194528561</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>3.845165417392211</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>3.009407667481505</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>3.72418849142379</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>3.736007239422642</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>3.238582920443934</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>2.095586306018704</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>1.923916096212359</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>2.211353716906697</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>2.857870531666177</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>3.559677953845414</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>3.766724906865082</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>4.070462237329107</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>3.81500804973778</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>4.033403127365492</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>3.669704111103883</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>3.563984002601185</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>2.760510793117676</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>2.462587534207063</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>1.981691694183161</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>2.445075501120139</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>2.991773327009402</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>3.319684961010404</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>4.13646886972082</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>4.145292536914365</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>4.036185546863186</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>3.827918360651244</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>3.926604671498606</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>3.069844592195664</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>2.762798435178774</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>2.396133278398837</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>1.930859196011941</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>2.349268878436261</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>3.545856221004427</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>3.529869622011412</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>4.068034912107104</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>4.809785265763406</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>3.597278756760733</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>3.928098121472245</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>3.315281314738518</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>3.27672786989448</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>3.213678395164201</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>2.412324760596458</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>1.81093297406829</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>2.520368712993251</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>3.259403629582887</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>3.590238477511482</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>4.213811858744111</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>3.892086647764097</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>4.452648800345806</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>3.511191837821998</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>3.805605642459255</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>3.435140092167073</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>3.023186490008754</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>2.639284095097639</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>2.173897424078472</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>2.315852561552996</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>3.166979819923557</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>3.730332847595581</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>3.756793784429195</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>3.895178276610766</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>4.590812925242498</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>3.333036572747081</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>3.806111260330974</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>3.41214150226094</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>2.735713009249551</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>2.238123857961226</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>2.303632918504476</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>2.542436434902938</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>2.810281538452052</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>3.252607277639088</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>3.993300489030353</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>4.044501398566649</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>3.489537962306608</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>3.195603693453361</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>3.231399340600404</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>3.823730958987599</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>2.82813138560745</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>2.552005571700503</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>2.038535721304961</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>2.502251001147945</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>3.350976644291541</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>3.531307653367695</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>4.014844738033855</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>4.491995653770944</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>4.269440892789702</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>3.716901506117379</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>3.847435921525909</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>4.089153894187948</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>3.598132568040084</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>2.626003786834443</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>2.340408643171344</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>2.715891638122659</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>3.473614643310412</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>3.262602973090893</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>4.416445543421138</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>4.691773378638803</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>4.412682299552989</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>3.783846896737899</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>3.873540082361071</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>3.649306318546191</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>2.984877374919346</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>2.587267684996085</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>2.26945119396857</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>2.278039899483698</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>3.540816672235958</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>3.250230189468094</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>3.621351889284098</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>4.035825104760748</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>3.83031599641794</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>3.943642674262324</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>3.838130036391059</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>3.720475528722806</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>2.936423366278503</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>2.552922194029812</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>1.997596489593268</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>2.627123418615368</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>3.59292337394378</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>3.637095654373827</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>4.807905508848203</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>4.720313665398206</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>4.378147776723496</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>3.60758957519448</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>3.822209974959282</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>3.31550897130838</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>3.42274942500759</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>2.450553618827483</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>2.339568358607701</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>2.574796479221864</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>3.539122624313386</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>3.776409928017987</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>4.536328214691786</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>4.537624426553897</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>4.430839889656033</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>3.567942371403902</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>3.869765090659599</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>3.578021704498465</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>2.835021801240777</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>2.711193013130589</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>1.955623371992506</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>2.577122625710831</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>3.637793367831858</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>3.713028219963776</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>4.171827274567742</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>4.936642781178373</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>4.5855392052871</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>3.85283739340086</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>3.524981130664885</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>4.065302771053413</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>3.124742970886783</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>2.552036891251649</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>2.385175287104435</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>2.285940100169823</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>3.396212298744868</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>3.919183702329426</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>4.149744103617384</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>4.864154250122191</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>4.597610555359306</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>3.923372908321901</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>3.76592477513627</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>3.817821223810873</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>3.175496710719731</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>2.643642754751481</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>1.891043630283227</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>2.207797784253196</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>2.966305282846041</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>3.59386986864688</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>4.423093031109646</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>4.000240295930161</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>3.926528790568845</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>3.51358582645973</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>3.959401512905997</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>3.455288319538247</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>3.166419672128072</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>2.329555062194641</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>2.094665236938359</v>
       </c>
     </row>
   </sheetData>
